--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/1 EVALUACION DEL CONTROL INTERNO ENFOQUE COSO.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/1 EVALUACION DEL CONTROL INTERNO ENFOQUE COSO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FCECDC-620A-4989-A7F9-DA3AB0F26A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3510C8D8-AE9C-4BF7-91FE-5F23E532308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="842" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,9 +1137,6 @@
     <t>Elaboró:</t>
   </si>
   <si>
-    <t xml:space="preserve">                                            Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t>Revisó:</t>
   </si>
   <si>
@@ -1149,13 +1146,16 @@
     <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">                                               Auditoría de Estados Financieros</t>
-  </si>
-  <si>
     <t>PL-3.1</t>
   </si>
   <si>
     <t>Logo</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoría de Estados Financieros</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1799,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1995,13 +1995,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2027,6 +2020,12 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2066,10 +2065,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,6 +2083,33 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2090,47 +2119,14 @@
     <xf numFmtId="9" fontId="11" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2964,14 +2960,16 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="2" customWidth="1"/>
-    <col min="3" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
+    <col min="6" max="10" width="11.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="2" hidden="1"/>
   </cols>
@@ -2984,19 +2982,19 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="153" t="s">
-        <v>351</v>
+      <c r="B2" s="117" t="s">
+        <v>349</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="H2" s="152" t="s">
-        <v>350</v>
+      <c r="H2" s="116" t="s">
+        <v>348</v>
       </c>
       <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="153"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="97"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -3004,7 +3002,7 @@
       <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="153"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="97"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -3015,11 +3013,11 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="102"/>
-      <c r="C5" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
+      <c r="C5" s="151" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
       <c r="H5" s="99" t="s">
         <v>261</v>
       </c>
@@ -3027,23 +3025,23 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="102"/>
-      <c r="C6" s="103" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="105"/>
+      <c r="C6" s="151" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
       <c r="H6" s="99" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I6" s="100"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="102"/>
-      <c r="C7" s="104" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105"/>
+      <c r="C7" s="151" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
       <c r="F7" s="97"/>
       <c r="G7"/>
       <c r="H7" s="99" t="s">
@@ -3052,54 +3050,54 @@
       <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="119" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
+      <c r="B8" s="118" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="126"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="125" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="126" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
@@ -3122,11 +3120,11 @@
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="120" t="s">
+      <c r="G15" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
@@ -3185,11 +3183,11 @@
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="H18" s="124"/>
-      <c r="I18" s="125"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
@@ -3240,11 +3238,11 @@
       <c r="D22" s="38"/>
       <c r="E22" s="37"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="120" t="s">
+      <c r="G22" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
@@ -3255,11 +3253,11 @@
         <f>+SUM(C16:C20)/5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="130" t="str">
+      <c r="D23" s="129" t="str">
         <f>IF((C23&gt;=76%),"ALTO",IF((C23&lt;=50%),"BAJO","MODERADO"))</f>
         <v>BAJO</v>
       </c>
-      <c r="E23" s="131"/>
+      <c r="E23" s="130"/>
       <c r="F23" s="27"/>
       <c r="G23" s="36" t="s">
         <v>268</v>
@@ -3276,11 +3274,11 @@
         <f>+SUM(D16:D20)/5</f>
         <v>1</v>
       </c>
-      <c r="D24" s="130" t="str">
+      <c r="D24" s="129" t="str">
         <f>IF((C24&gt;=50%),"ALTO",IF((C24&lt;=24%),"BAJO","MODERADO"))</f>
         <v>ALTO</v>
       </c>
-      <c r="E24" s="131"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="27"/>
       <c r="G24" s="31" t="s">
         <v>266</v>
@@ -3293,11 +3291,11 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="123" t="s">
+      <c r="G25" s="122" t="s">
         <v>265</v>
       </c>
-      <c r="H25" s="124"/>
-      <c r="I25" s="125"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="124"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
@@ -3512,7 +3510,7 @@
     <row r="59" spans="2:7" x14ac:dyDescent="0.2"/>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="G22:I22"/>
@@ -3524,6 +3522,9 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G18:I18"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D24 F23:F24">
     <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
@@ -3571,87 +3572,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="131" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
       <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="132" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151" t="s">
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132" t="s">
         <v>289</v>
       </c>
       <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="110" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="132"/>
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
       <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4798,37 +4799,37 @@
       <c r="F86" s="63"/>
     </row>
     <row r="87" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="146" t="str">
+      <c r="A87" s="133" t="str">
         <f>+A1</f>
         <v>CUESTIONARIO DE CONTROL INTERNO (Enfoque COSO)</v>
       </c>
-      <c r="B87" s="146"/>
-      <c r="C87" s="146"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
-      <c r="G87" s="146"/>
-      <c r="H87" s="146"/>
-      <c r="I87" s="146"/>
-      <c r="J87" s="146"/>
-      <c r="K87" s="146"/>
-      <c r="L87" s="146"/>
+      <c r="B87" s="133"/>
+      <c r="C87" s="133"/>
+      <c r="D87" s="133"/>
+      <c r="E87" s="133"/>
+      <c r="F87" s="133"/>
+      <c r="G87" s="133"/>
+      <c r="H87" s="133"/>
+      <c r="I87" s="133"/>
+      <c r="J87" s="133"/>
+      <c r="K87" s="133"/>
+      <c r="L87" s="133"/>
     </row>
     <row r="88" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="146" t="s">
+      <c r="A88" s="133" t="s">
         <v>296</v>
       </c>
-      <c r="B88" s="146"/>
-      <c r="C88" s="146"/>
-      <c r="D88" s="146"/>
-      <c r="E88" s="146"/>
-      <c r="F88" s="146"/>
-      <c r="G88" s="146"/>
-      <c r="H88" s="146"/>
-      <c r="I88" s="146"/>
-      <c r="J88" s="146"/>
-      <c r="K88" s="146"/>
-      <c r="L88" s="146"/>
+      <c r="B88" s="133"/>
+      <c r="C88" s="133"/>
+      <c r="D88" s="133"/>
+      <c r="E88" s="133"/>
+      <c r="F88" s="133"/>
+      <c r="G88" s="133"/>
+      <c r="H88" s="133"/>
+      <c r="I88" s="133"/>
+      <c r="J88" s="133"/>
+      <c r="K88" s="133"/>
+      <c r="L88" s="133"/>
     </row>
     <row r="89" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="64"/>
@@ -4863,7 +4864,7 @@
       <c r="F91" s="68"/>
     </row>
     <row r="92" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="147" t="s">
+      <c r="A92" s="137" t="s">
         <v>297</v>
       </c>
       <c r="B92" s="69" t="s">
@@ -4873,15 +4874,15 @@
         <f>+C77</f>
         <v>0</v>
       </c>
-      <c r="D92" s="140">
+      <c r="D92" s="138">
         <f>+C92/C93</f>
         <v>0</v>
       </c>
-      <c r="E92" s="148" t="str">
+      <c r="E92" s="140" t="str">
         <f>IF(($D$92&gt;0.75),"ALTO",IF(($D$92&lt;0.51),"BAJO","MODERADO"))</f>
         <v>BAJO</v>
       </c>
-      <c r="F92" s="148"/>
+      <c r="F92" s="140"/>
       <c r="G92" s="61"/>
       <c r="H92" s="71" t="s">
         <v>299</v>
@@ -4891,7 +4892,7 @@
       <c r="K92" s="73"/>
     </row>
     <row r="93" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="147"/>
+      <c r="A93" s="137"/>
       <c r="B93" s="74" t="s">
         <v>300</v>
       </c>
@@ -4899,14 +4900,14 @@
         <f>+C78</f>
         <v>650</v>
       </c>
-      <c r="D93" s="141"/>
-      <c r="E93" s="149"/>
-      <c r="F93" s="149"/>
+      <c r="D93" s="139"/>
+      <c r="E93" s="141"/>
+      <c r="F93" s="141"/>
       <c r="G93" s="75"/>
-      <c r="H93" s="144" t="s">
+      <c r="H93" s="142" t="s">
         <v>301</v>
       </c>
-      <c r="I93" s="145"/>
+      <c r="I93" s="143"/>
       <c r="J93" s="76" t="s">
         <v>302</v>
       </c>
@@ -4920,10 +4921,10 @@
       <c r="E94" s="52"/>
       <c r="F94" s="75"/>
       <c r="G94" s="75"/>
-      <c r="H94" s="137" t="s">
+      <c r="H94" s="146" t="s">
         <v>303</v>
       </c>
-      <c r="I94" s="138"/>
+      <c r="I94" s="147"/>
       <c r="J94" s="76" t="s">
         <v>304</v>
       </c>
@@ -4936,10 +4937,10 @@
       <c r="D95" s="52"/>
       <c r="E95" s="52"/>
       <c r="F95" s="68"/>
-      <c r="H95" s="132" t="s">
+      <c r="H95" s="144" t="s">
         <v>305</v>
       </c>
-      <c r="I95" s="133"/>
+      <c r="I95" s="145"/>
       <c r="J95" s="80" t="s">
         <v>306</v>
       </c>
@@ -4998,23 +4999,23 @@
       <c r="B100" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="C100" s="139">
+      <c r="C100" s="148">
         <v>1</v>
       </c>
-      <c r="D100" s="140">
+      <c r="D100" s="138">
         <f>+C100-D92</f>
         <v>1</v>
       </c>
-      <c r="E100" s="142" t="str">
+      <c r="E100" s="149" t="str">
         <f>IF((D100&gt;=50%),"ALTO",IF((D100&lt;=24%),"BAJO","MODERADO"))</f>
         <v>ALTO</v>
       </c>
-      <c r="F100" s="142"/>
+      <c r="F100" s="149"/>
       <c r="G100" s="68"/>
-      <c r="H100" s="144" t="s">
+      <c r="H100" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="I100" s="145"/>
+      <c r="I100" s="143"/>
       <c r="J100" s="76" t="s">
         <v>302</v>
       </c>
@@ -5023,15 +5024,15 @@
     <row r="101" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="82"/>
       <c r="B101" s="52"/>
-      <c r="C101" s="139"/>
-      <c r="D101" s="141"/>
-      <c r="E101" s="143"/>
-      <c r="F101" s="143"/>
+      <c r="C101" s="148"/>
+      <c r="D101" s="139"/>
+      <c r="E101" s="150"/>
+      <c r="F101" s="150"/>
       <c r="G101" s="68"/>
-      <c r="H101" s="137" t="s">
+      <c r="H101" s="146" t="s">
         <v>312</v>
       </c>
-      <c r="I101" s="138"/>
+      <c r="I101" s="147"/>
       <c r="J101" s="76" t="s">
         <v>304</v>
       </c>
@@ -5045,10 +5046,10 @@
       <c r="E102" s="52"/>
       <c r="F102" s="68"/>
       <c r="G102" s="68"/>
-      <c r="H102" s="132" t="s">
+      <c r="H102" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="I102" s="133"/>
+      <c r="I102" s="145"/>
       <c r="J102" s="80" t="s">
         <v>306</v>
       </c>
@@ -8757,19 +8758,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A88:L88"/>
-    <mergeCell ref="A90:L90"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:F93"/>
-    <mergeCell ref="H93:I93"/>
     <mergeCell ref="H102:I102"/>
     <mergeCell ref="A104:L104"/>
     <mergeCell ref="H94:I94"/>
@@ -8780,6 +8768,19 @@
     <mergeCell ref="E100:F101"/>
     <mergeCell ref="H100:I100"/>
     <mergeCell ref="H101:I101"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A88:L88"/>
+    <mergeCell ref="A90:L90"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="E92:F93">
     <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
@@ -8829,75 +8830,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="131" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="108" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="132" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151" t="s">
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132" t="s">
         <v>289</v>
       </c>
       <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="110" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="132"/>
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9789,37 +9790,37 @@
       <c r="F68" s="63"/>
     </row>
     <row r="69" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="146" t="str">
+      <c r="A69" s="133" t="str">
         <f>+A1</f>
         <v>CUESTIONARIO DE CONTROL INTERNO (Enfoque COSO)</v>
       </c>
-      <c r="B69" s="146"/>
-      <c r="C69" s="146"/>
-      <c r="D69" s="146"/>
-      <c r="E69" s="146"/>
-      <c r="F69" s="146"/>
-      <c r="G69" s="146"/>
-      <c r="H69" s="146"/>
-      <c r="I69" s="146"/>
-      <c r="J69" s="146"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="146"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="133"/>
+      <c r="D69" s="133"/>
+      <c r="E69" s="133"/>
+      <c r="F69" s="133"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
+      <c r="J69" s="133"/>
+      <c r="K69" s="133"/>
+      <c r="L69" s="133"/>
     </row>
     <row r="70" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="146" t="s">
+      <c r="A70" s="133" t="s">
         <v>318</v>
       </c>
-      <c r="B70" s="146"/>
-      <c r="C70" s="146"/>
-      <c r="D70" s="146"/>
-      <c r="E70" s="146"/>
-      <c r="F70" s="146"/>
-      <c r="G70" s="146"/>
-      <c r="H70" s="146"/>
-      <c r="I70" s="146"/>
-      <c r="J70" s="146"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="146"/>
+      <c r="B70" s="133"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="133"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="133"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="133"/>
+      <c r="L70" s="133"/>
     </row>
     <row r="71" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="64"/>
@@ -9854,7 +9855,7 @@
       <c r="F73" s="68"/>
     </row>
     <row r="74" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="147" t="s">
+      <c r="A74" s="137" t="s">
         <v>297</v>
       </c>
       <c r="B74" s="69" t="s">
@@ -9864,15 +9865,15 @@
         <f>+C59</f>
         <v>0</v>
       </c>
-      <c r="D74" s="140">
+      <c r="D74" s="138">
         <f>+C74/C75</f>
         <v>0</v>
       </c>
-      <c r="E74" s="148" t="str">
+      <c r="E74" s="140" t="str">
         <f>IF(($D$74&gt;0.75),"ALTO",IF(($D$74&lt;0.51),"BAJO","MODERADO"))</f>
         <v>BAJO</v>
       </c>
-      <c r="F74" s="148"/>
+      <c r="F74" s="140"/>
       <c r="G74" s="61"/>
       <c r="H74" s="71" t="s">
         <v>299</v>
@@ -9882,7 +9883,7 @@
       <c r="K74" s="73"/>
     </row>
     <row r="75" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="147"/>
+      <c r="A75" s="137"/>
       <c r="B75" s="74" t="s">
         <v>300</v>
       </c>
@@ -9890,14 +9891,14 @@
         <f>+C60</f>
         <v>480</v>
       </c>
-      <c r="D75" s="141"/>
-      <c r="E75" s="149"/>
-      <c r="F75" s="149"/>
+      <c r="D75" s="139"/>
+      <c r="E75" s="141"/>
+      <c r="F75" s="141"/>
       <c r="G75" s="75"/>
-      <c r="H75" s="144" t="s">
+      <c r="H75" s="142" t="s">
         <v>301</v>
       </c>
-      <c r="I75" s="145"/>
+      <c r="I75" s="143"/>
       <c r="J75" s="76" t="s">
         <v>302</v>
       </c>
@@ -9911,10 +9912,10 @@
       <c r="E76" s="52"/>
       <c r="F76" s="75"/>
       <c r="G76" s="75"/>
-      <c r="H76" s="137" t="s">
+      <c r="H76" s="146" t="s">
         <v>303</v>
       </c>
-      <c r="I76" s="138"/>
+      <c r="I76" s="147"/>
       <c r="J76" s="76" t="s">
         <v>304</v>
       </c>
@@ -9927,10 +9928,10 @@
       <c r="D77" s="52"/>
       <c r="E77" s="52"/>
       <c r="F77" s="68"/>
-      <c r="H77" s="132" t="s">
+      <c r="H77" s="144" t="s">
         <v>305</v>
       </c>
-      <c r="I77" s="133"/>
+      <c r="I77" s="145"/>
       <c r="J77" s="80" t="s">
         <v>306</v>
       </c>
@@ -9989,23 +9990,23 @@
       <c r="B82" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="C82" s="139">
+      <c r="C82" s="148">
         <v>1</v>
       </c>
-      <c r="D82" s="140">
+      <c r="D82" s="138">
         <f>+C82-D74</f>
         <v>1</v>
       </c>
-      <c r="E82" s="142" t="str">
+      <c r="E82" s="149" t="str">
         <f>IF(($D$82&gt;=50%),"ALTO",IF(($D$82&lt;=24%),"BAJO","MODERADO"))</f>
         <v>ALTO</v>
       </c>
-      <c r="F82" s="142"/>
+      <c r="F82" s="149"/>
       <c r="G82" s="68"/>
-      <c r="H82" s="144" t="s">
+      <c r="H82" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="I82" s="145"/>
+      <c r="I82" s="143"/>
       <c r="J82" s="76" t="s">
         <v>302</v>
       </c>
@@ -10014,15 +10015,15 @@
     <row r="83" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="82"/>
       <c r="B83" s="52"/>
-      <c r="C83" s="139"/>
-      <c r="D83" s="141"/>
-      <c r="E83" s="143"/>
-      <c r="F83" s="143"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="139"/>
+      <c r="E83" s="150"/>
+      <c r="F83" s="150"/>
       <c r="G83" s="68"/>
-      <c r="H83" s="137" t="s">
+      <c r="H83" s="146" t="s">
         <v>312</v>
       </c>
-      <c r="I83" s="138"/>
+      <c r="I83" s="147"/>
       <c r="J83" s="76" t="s">
         <v>304</v>
       </c>
@@ -10036,10 +10037,10 @@
       <c r="E84" s="52"/>
       <c r="F84" s="68"/>
       <c r="G84" s="68"/>
-      <c r="H84" s="132" t="s">
+      <c r="H84" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="I84" s="133"/>
+      <c r="I84" s="145"/>
       <c r="J84" s="80" t="s">
         <v>306</v>
       </c>
@@ -13748,19 +13749,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="A70:L70"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:F75"/>
-    <mergeCell ref="H75:I75"/>
     <mergeCell ref="H84:I84"/>
     <mergeCell ref="A86:L86"/>
     <mergeCell ref="H76:I76"/>
@@ -13771,6 +13759,19 @@
     <mergeCell ref="E82:F83"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="H83:I83"/>
+    <mergeCell ref="A69:L69"/>
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="E74:F75">
     <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
@@ -13820,75 +13821,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="131" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="108" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="132" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151" t="s">
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132" t="s">
         <v>289</v>
       </c>
       <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="110" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="132"/>
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -15500,37 +15501,37 @@
       <c r="F116" s="63"/>
     </row>
     <row r="117" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="146" t="str">
+      <c r="A117" s="133" t="str">
         <f>+A1</f>
         <v>CUESTIONARIO DE CONTROL INTERNO (Enfoque COSO)</v>
       </c>
-      <c r="B117" s="146"/>
-      <c r="C117" s="146"/>
-      <c r="D117" s="146"/>
-      <c r="E117" s="146"/>
-      <c r="F117" s="146"/>
-      <c r="G117" s="146"/>
-      <c r="H117" s="146"/>
-      <c r="I117" s="146"/>
-      <c r="J117" s="146"/>
-      <c r="K117" s="146"/>
-      <c r="L117" s="146"/>
+      <c r="B117" s="133"/>
+      <c r="C117" s="133"/>
+      <c r="D117" s="133"/>
+      <c r="E117" s="133"/>
+      <c r="F117" s="133"/>
+      <c r="G117" s="133"/>
+      <c r="H117" s="133"/>
+      <c r="I117" s="133"/>
+      <c r="J117" s="133"/>
+      <c r="K117" s="133"/>
+      <c r="L117" s="133"/>
     </row>
     <row r="118" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A118" s="146" t="s">
+      <c r="A118" s="133" t="s">
         <v>319</v>
       </c>
-      <c r="B118" s="146"/>
-      <c r="C118" s="146"/>
-      <c r="D118" s="146"/>
-      <c r="E118" s="146"/>
-      <c r="F118" s="146"/>
-      <c r="G118" s="146"/>
-      <c r="H118" s="146"/>
-      <c r="I118" s="146"/>
-      <c r="J118" s="146"/>
-      <c r="K118" s="146"/>
-      <c r="L118" s="146"/>
+      <c r="B118" s="133"/>
+      <c r="C118" s="133"/>
+      <c r="D118" s="133"/>
+      <c r="E118" s="133"/>
+      <c r="F118" s="133"/>
+      <c r="G118" s="133"/>
+      <c r="H118" s="133"/>
+      <c r="I118" s="133"/>
+      <c r="J118" s="133"/>
+      <c r="K118" s="133"/>
+      <c r="L118" s="133"/>
     </row>
     <row r="119" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="64"/>
@@ -15565,7 +15566,7 @@
       <c r="F121" s="68"/>
     </row>
     <row r="122" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="147" t="s">
+      <c r="A122" s="137" t="s">
         <v>297</v>
       </c>
       <c r="B122" s="69" t="s">
@@ -15575,15 +15576,15 @@
         <f>+C107</f>
         <v>0</v>
       </c>
-      <c r="D122" s="140">
+      <c r="D122" s="138">
         <f>+C122/C123</f>
         <v>0</v>
       </c>
-      <c r="E122" s="148" t="str">
+      <c r="E122" s="140" t="str">
         <f>IF(($D$122&gt;0.75),"ALTO",IF(($D$122&lt;0.51),"BAJO","MODERADO"))</f>
         <v>BAJO</v>
       </c>
-      <c r="F122" s="148"/>
+      <c r="F122" s="140"/>
       <c r="G122" s="61"/>
       <c r="H122" s="71" t="s">
         <v>299</v>
@@ -15593,7 +15594,7 @@
       <c r="K122" s="73"/>
     </row>
     <row r="123" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="147"/>
+      <c r="A123" s="137"/>
       <c r="B123" s="74" t="s">
         <v>300</v>
       </c>
@@ -15601,14 +15602,14 @@
         <f>+C108</f>
         <v>960</v>
       </c>
-      <c r="D123" s="141"/>
-      <c r="E123" s="149"/>
-      <c r="F123" s="149"/>
+      <c r="D123" s="139"/>
+      <c r="E123" s="141"/>
+      <c r="F123" s="141"/>
       <c r="G123" s="75"/>
-      <c r="H123" s="144" t="s">
+      <c r="H123" s="142" t="s">
         <v>301</v>
       </c>
-      <c r="I123" s="145"/>
+      <c r="I123" s="143"/>
       <c r="J123" s="76" t="s">
         <v>302</v>
       </c>
@@ -15622,10 +15623,10 @@
       <c r="E124" s="52"/>
       <c r="F124" s="75"/>
       <c r="G124" s="75"/>
-      <c r="H124" s="137" t="s">
+      <c r="H124" s="146" t="s">
         <v>303</v>
       </c>
-      <c r="I124" s="138"/>
+      <c r="I124" s="147"/>
       <c r="J124" s="76" t="s">
         <v>304</v>
       </c>
@@ -15638,10 +15639,10 @@
       <c r="D125" s="52"/>
       <c r="E125" s="52"/>
       <c r="F125" s="68"/>
-      <c r="H125" s="132" t="s">
+      <c r="H125" s="144" t="s">
         <v>305</v>
       </c>
-      <c r="I125" s="133"/>
+      <c r="I125" s="145"/>
       <c r="J125" s="80" t="s">
         <v>306</v>
       </c>
@@ -15700,23 +15701,23 @@
       <c r="B130" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="C130" s="139">
+      <c r="C130" s="148">
         <v>1</v>
       </c>
-      <c r="D130" s="140">
+      <c r="D130" s="138">
         <f>+C130-D122</f>
         <v>1</v>
       </c>
-      <c r="E130" s="142" t="str">
+      <c r="E130" s="149" t="str">
         <f>IF((D130&gt;=50%),"ALTO",IF((D130&lt;=24%),"BAJO","MODERADO"))</f>
         <v>ALTO</v>
       </c>
-      <c r="F130" s="142"/>
+      <c r="F130" s="149"/>
       <c r="G130" s="68"/>
-      <c r="H130" s="144" t="s">
+      <c r="H130" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="I130" s="145"/>
+      <c r="I130" s="143"/>
       <c r="J130" s="76" t="s">
         <v>302</v>
       </c>
@@ -15725,15 +15726,15 @@
     <row r="131" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="82"/>
       <c r="B131" s="52"/>
-      <c r="C131" s="139"/>
-      <c r="D131" s="141"/>
-      <c r="E131" s="143"/>
-      <c r="F131" s="143"/>
+      <c r="C131" s="148"/>
+      <c r="D131" s="139"/>
+      <c r="E131" s="150"/>
+      <c r="F131" s="150"/>
       <c r="G131" s="68"/>
-      <c r="H131" s="137" t="s">
+      <c r="H131" s="146" t="s">
         <v>312</v>
       </c>
-      <c r="I131" s="138"/>
+      <c r="I131" s="147"/>
       <c r="J131" s="76" t="s">
         <v>304</v>
       </c>
@@ -15747,10 +15748,10 @@
       <c r="E132" s="52"/>
       <c r="F132" s="68"/>
       <c r="G132" s="68"/>
-      <c r="H132" s="132" t="s">
+      <c r="H132" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="I132" s="133"/>
+      <c r="I132" s="145"/>
       <c r="J132" s="80" t="s">
         <v>306</v>
       </c>
@@ -19459,19 +19460,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A117:L117"/>
-    <mergeCell ref="A118:L118"/>
-    <mergeCell ref="A120:L120"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:F123"/>
-    <mergeCell ref="H123:I123"/>
     <mergeCell ref="H132:I132"/>
     <mergeCell ref="A134:L134"/>
     <mergeCell ref="H124:I124"/>
@@ -19482,6 +19470,19 @@
     <mergeCell ref="E130:F131"/>
     <mergeCell ref="H130:I130"/>
     <mergeCell ref="H131:I131"/>
+    <mergeCell ref="A117:L117"/>
+    <mergeCell ref="A118:L118"/>
+    <mergeCell ref="A120:L120"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:F123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="E122:F123">
     <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
@@ -19531,75 +19532,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="131" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="108" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="132" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151" t="s">
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132" t="s">
         <v>289</v>
       </c>
       <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="110" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="132"/>
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -20122,37 +20123,37 @@
       <c r="F43" s="63"/>
     </row>
     <row r="44" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="146" t="str">
+      <c r="A44" s="133" t="str">
         <f>+A1</f>
         <v>CUESTIONARIO DE CONTROL INTERNO (Enfoque COSO)</v>
       </c>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="133"/>
     </row>
     <row r="45" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="146" t="s">
+      <c r="A45" s="133" t="s">
         <v>323</v>
       </c>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
     </row>
     <row r="46" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="64"/>
@@ -20187,7 +20188,7 @@
       <c r="F48" s="68"/>
     </row>
     <row r="49" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="147" t="s">
+      <c r="A49" s="137" t="s">
         <v>297</v>
       </c>
       <c r="B49" s="69" t="s">
@@ -20197,15 +20198,15 @@
         <f>+C34</f>
         <v>0</v>
       </c>
-      <c r="D49" s="140">
+      <c r="D49" s="138">
         <f>+C49/C50</f>
         <v>0</v>
       </c>
-      <c r="E49" s="148" t="str">
+      <c r="E49" s="140" t="str">
         <f>IF(($D$49&gt;0.75),"ALTO",IF(($D$49&lt;0.51),"BAJO","MODERADO"))</f>
         <v>BAJO</v>
       </c>
-      <c r="F49" s="148"/>
+      <c r="F49" s="140"/>
       <c r="G49" s="61"/>
       <c r="H49" s="71" t="s">
         <v>299</v>
@@ -20215,7 +20216,7 @@
       <c r="K49" s="73"/>
     </row>
     <row r="50" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="147"/>
+      <c r="A50" s="137"/>
       <c r="B50" s="74" t="s">
         <v>300</v>
       </c>
@@ -20223,14 +20224,14 @@
         <f>+C35</f>
         <v>250</v>
       </c>
-      <c r="D50" s="141"/>
-      <c r="E50" s="149"/>
-      <c r="F50" s="149"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
       <c r="G50" s="75"/>
-      <c r="H50" s="144" t="s">
+      <c r="H50" s="142" t="s">
         <v>301</v>
       </c>
-      <c r="I50" s="145"/>
+      <c r="I50" s="143"/>
       <c r="J50" s="76" t="s">
         <v>302</v>
       </c>
@@ -20244,10 +20245,10 @@
       <c r="E51" s="52"/>
       <c r="F51" s="75"/>
       <c r="G51" s="75"/>
-      <c r="H51" s="137" t="s">
+      <c r="H51" s="146" t="s">
         <v>303</v>
       </c>
-      <c r="I51" s="138"/>
+      <c r="I51" s="147"/>
       <c r="J51" s="76" t="s">
         <v>304</v>
       </c>
@@ -20260,10 +20261,10 @@
       <c r="D52" s="52"/>
       <c r="E52" s="52"/>
       <c r="F52" s="68"/>
-      <c r="H52" s="132" t="s">
+      <c r="H52" s="144" t="s">
         <v>305</v>
       </c>
-      <c r="I52" s="133"/>
+      <c r="I52" s="145"/>
       <c r="J52" s="80" t="s">
         <v>306</v>
       </c>
@@ -20322,23 +20323,23 @@
       <c r="B57" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="C57" s="139">
+      <c r="C57" s="148">
         <v>1</v>
       </c>
-      <c r="D57" s="140">
+      <c r="D57" s="138">
         <f>+C57-D49</f>
         <v>1</v>
       </c>
-      <c r="E57" s="142" t="str">
+      <c r="E57" s="149" t="str">
         <f>IF((D57&gt;=50%),"ALTO",IF((D57&lt;=24%),"BAJO","MODERADO"))</f>
         <v>ALTO</v>
       </c>
-      <c r="F57" s="142"/>
+      <c r="F57" s="149"/>
       <c r="G57" s="68"/>
-      <c r="H57" s="144" t="s">
+      <c r="H57" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="I57" s="145"/>
+      <c r="I57" s="143"/>
       <c r="J57" s="76" t="s">
         <v>302</v>
       </c>
@@ -20347,15 +20348,15 @@
     <row r="58" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="82"/>
       <c r="B58" s="52"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="150"/>
       <c r="G58" s="68"/>
-      <c r="H58" s="137" t="s">
+      <c r="H58" s="146" t="s">
         <v>312</v>
       </c>
-      <c r="I58" s="138"/>
+      <c r="I58" s="147"/>
       <c r="J58" s="76" t="s">
         <v>304</v>
       </c>
@@ -20369,10 +20370,10 @@
       <c r="E59" s="52"/>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
-      <c r="H59" s="132" t="s">
+      <c r="H59" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="I59" s="133"/>
+      <c r="I59" s="145"/>
       <c r="J59" s="80" t="s">
         <v>306</v>
       </c>
@@ -24081,19 +24082,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="H50:I50"/>
     <mergeCell ref="H59:I59"/>
     <mergeCell ref="A61:L61"/>
     <mergeCell ref="H51:I51"/>
@@ -24104,6 +24092,19 @@
     <mergeCell ref="E57:F58"/>
     <mergeCell ref="H57:I57"/>
     <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="E49:F50">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
@@ -24153,75 +24154,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="131" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="108" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
       <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="132" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151" t="s">
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132" t="s">
         <v>289</v>
       </c>
       <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="151"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="110" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="107" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="107" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="132"/>
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -24699,37 +24700,37 @@
       <c r="F40" s="63"/>
     </row>
     <row r="41" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="146" t="str">
+      <c r="A41" s="133" t="str">
         <f>+A1</f>
         <v>CUESTIONARIO DE CONTROL INTERNO (Enfoque COSO)</v>
       </c>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="133"/>
     </row>
     <row r="42" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="146" t="s">
+      <c r="A42" s="133" t="s">
         <v>321</v>
       </c>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="146"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="64"/>
@@ -24764,7 +24765,7 @@
       <c r="F45" s="68"/>
     </row>
     <row r="46" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="147" t="s">
+      <c r="A46" s="137" t="s">
         <v>297</v>
       </c>
       <c r="B46" s="69" t="s">
@@ -24774,15 +24775,15 @@
         <f>+C31</f>
         <v>0</v>
       </c>
-      <c r="D46" s="140">
+      <c r="D46" s="138">
         <f>+C46/C47</f>
         <v>0</v>
       </c>
-      <c r="E46" s="148" t="str">
+      <c r="E46" s="140" t="str">
         <f>IF(($D$46&gt;0.75),"ALTO",IF(($D$46&lt;0.51),"BAJO","MODERADO"))</f>
         <v>BAJO</v>
       </c>
-      <c r="F46" s="148"/>
+      <c r="F46" s="140"/>
       <c r="G46" s="61"/>
       <c r="H46" s="71" t="s">
         <v>299</v>
@@ -24792,7 +24793,7 @@
       <c r="K46" s="73"/>
     </row>
     <row r="47" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="147"/>
+      <c r="A47" s="137"/>
       <c r="B47" s="74" t="s">
         <v>300</v>
       </c>
@@ -24800,14 +24801,14 @@
         <f>+C32</f>
         <v>220</v>
       </c>
-      <c r="D47" s="141"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
       <c r="G47" s="75"/>
-      <c r="H47" s="144" t="s">
+      <c r="H47" s="142" t="s">
         <v>301</v>
       </c>
-      <c r="I47" s="145"/>
+      <c r="I47" s="143"/>
       <c r="J47" s="76" t="s">
         <v>302</v>
       </c>
@@ -24821,10 +24822,10 @@
       <c r="E48" s="52"/>
       <c r="F48" s="75"/>
       <c r="G48" s="75"/>
-      <c r="H48" s="137" t="s">
+      <c r="H48" s="146" t="s">
         <v>303</v>
       </c>
-      <c r="I48" s="138"/>
+      <c r="I48" s="147"/>
       <c r="J48" s="76" t="s">
         <v>304</v>
       </c>
@@ -24837,10 +24838,10 @@
       <c r="D49" s="52"/>
       <c r="E49" s="52"/>
       <c r="F49" s="68"/>
-      <c r="H49" s="132" t="s">
+      <c r="H49" s="144" t="s">
         <v>305</v>
       </c>
-      <c r="I49" s="133"/>
+      <c r="I49" s="145"/>
       <c r="J49" s="80" t="s">
         <v>306</v>
       </c>
@@ -24899,23 +24900,23 @@
       <c r="B54" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="C54" s="139">
+      <c r="C54" s="148">
         <v>1</v>
       </c>
-      <c r="D54" s="140">
+      <c r="D54" s="138">
         <f>+C54-D46</f>
         <v>1</v>
       </c>
-      <c r="E54" s="142" t="str">
+      <c r="E54" s="149" t="str">
         <f>IF((D54&gt;=50%),"ALTO",IF((D54&lt;=24%),"BAJO","MODERADO"))</f>
         <v>ALTO</v>
       </c>
-      <c r="F54" s="142"/>
+      <c r="F54" s="149"/>
       <c r="G54" s="68"/>
-      <c r="H54" s="144" t="s">
+      <c r="H54" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="145"/>
+      <c r="I54" s="143"/>
       <c r="J54" s="76" t="s">
         <v>302</v>
       </c>
@@ -24924,15 +24925,15 @@
     <row r="55" spans="1:12" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="82"/>
       <c r="B55" s="52"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
       <c r="G55" s="68"/>
-      <c r="H55" s="137" t="s">
+      <c r="H55" s="146" t="s">
         <v>312</v>
       </c>
-      <c r="I55" s="138"/>
+      <c r="I55" s="147"/>
       <c r="J55" s="76" t="s">
         <v>304</v>
       </c>
@@ -24946,10 +24947,10 @@
       <c r="E56" s="52"/>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
-      <c r="H56" s="132" t="s">
+      <c r="H56" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="I56" s="133"/>
+      <c r="I56" s="145"/>
       <c r="J56" s="80" t="s">
         <v>306</v>
       </c>
@@ -28658,19 +28659,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="H47:I47"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="A58:L58"/>
     <mergeCell ref="H48:I48"/>
@@ -28681,6 +28669,19 @@
     <mergeCell ref="E54:F55"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="E46:F47">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
